--- a/src/data/W_data.xlsx
+++ b/src/data/W_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20930" windowHeight="10610"/>
+    <workbookView windowWidth="27945" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>t</t>
   </si>
@@ -27,28 +27,19 @@
     <t>P_EL</t>
   </si>
   <si>
-    <t>Q_EL</t>
-  </si>
-  <si>
     <t>H_TL</t>
   </si>
   <si>
-    <t>TEM_AM</t>
+    <t>C_TL</t>
   </si>
   <si>
     <t>P_RES</t>
-  </si>
-  <si>
-    <t>Q_RES</t>
-  </si>
-  <si>
-    <t>C_TL</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -64,55 +55,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -157,6 +112,21 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -202,7 +172,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -217,49 +208,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -271,121 +346,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -408,21 +399,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -455,6 +431,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -513,148 +504,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -665,52 +656,52 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -1010,15 +1001,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I25"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9:G17"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1037,17 +1028,8 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1058,25 +1040,16 @@
         <v>140</v>
       </c>
       <c r="D2">
-        <v>138.68</v>
+        <v>26.6</v>
       </c>
       <c r="E2">
-        <v>26.6</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>-5.15</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1087,25 +1060,16 @@
         <v>150</v>
       </c>
       <c r="D3">
-        <v>148.58</v>
+        <v>30.6</v>
       </c>
       <c r="E3">
-        <v>30.6</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>-5.15</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1116,25 +1080,16 @@
         <v>170</v>
       </c>
       <c r="D4">
-        <v>168.4</v>
+        <v>45.23</v>
       </c>
       <c r="E4">
-        <v>45.23</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>-5.15</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1145,25 +1100,16 @@
         <v>190</v>
       </c>
       <c r="D5">
-        <v>188.21</v>
+        <v>59.86</v>
       </c>
       <c r="E5">
-        <v>59.86</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>-7.65</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1174,25 +1120,16 @@
         <v>200</v>
       </c>
       <c r="D6">
-        <v>198.11</v>
+        <v>101.1</v>
       </c>
       <c r="E6">
-        <v>101.1</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>-10.15</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1203,25 +1140,16 @@
         <v>220</v>
       </c>
       <c r="D7">
-        <v>217.92</v>
+        <v>119.72</v>
       </c>
       <c r="E7">
-        <v>119.72</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>-7.65</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1232,25 +1160,16 @@
         <v>230</v>
       </c>
       <c r="D8">
-        <v>227.83</v>
+        <v>159.63</v>
       </c>
       <c r="E8">
-        <v>159.63</v>
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>-7.15</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1261,25 +1180,16 @@
         <v>240</v>
       </c>
       <c r="D9">
-        <v>237.73</v>
+        <v>199.54</v>
       </c>
       <c r="E9">
-        <v>199.54</v>
+        <v>10</v>
       </c>
       <c r="F9">
-        <v>-4.15</v>
-      </c>
-      <c r="G9">
         <v>107.38</v>
       </c>
-      <c r="H9">
-        <v>107.38</v>
-      </c>
-      <c r="I9">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1290,25 +1200,16 @@
         <v>260</v>
       </c>
       <c r="D10">
-        <v>257.55</v>
+        <v>239.44</v>
       </c>
       <c r="E10">
-        <v>239.44</v>
+        <v>11</v>
       </c>
       <c r="F10">
-        <v>-2.65</v>
-      </c>
-      <c r="G10">
         <v>39.51</v>
       </c>
-      <c r="H10">
-        <v>39.51</v>
-      </c>
-      <c r="I10">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1319,25 +1220,16 @@
         <v>280</v>
       </c>
       <c r="D11">
-        <v>277.36</v>
+        <v>266.05</v>
       </c>
       <c r="E11">
-        <v>266.05</v>
+        <v>12</v>
       </c>
       <c r="F11">
-        <v>0.85</v>
-      </c>
-      <c r="G11">
         <v>83.28</v>
       </c>
-      <c r="H11">
-        <v>83.28</v>
-      </c>
-      <c r="I11">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1348,25 +1240,16 @@
         <v>290</v>
       </c>
       <c r="D12">
-        <v>287.26</v>
+        <v>279.35</v>
       </c>
       <c r="E12">
-        <v>279.35</v>
+        <v>13</v>
       </c>
       <c r="F12">
-        <v>2.35</v>
-      </c>
-      <c r="G12">
         <v>128.02</v>
       </c>
-      <c r="H12">
-        <v>128.02</v>
-      </c>
-      <c r="I12">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1377,25 +1260,16 @@
         <v>292</v>
       </c>
       <c r="D13">
-        <v>297.17</v>
+        <v>266.05</v>
       </c>
       <c r="E13">
-        <v>266.05</v>
+        <v>14</v>
       </c>
       <c r="F13">
-        <v>5.85</v>
-      </c>
-      <c r="G13">
         <v>156.9</v>
       </c>
-      <c r="H13">
-        <v>156.9</v>
-      </c>
-      <c r="I13">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1406,25 +1280,16 @@
         <v>280</v>
       </c>
       <c r="D14">
-        <v>297.17</v>
+        <v>248.75</v>
       </c>
       <c r="E14">
-        <v>248.75</v>
+        <v>15</v>
       </c>
       <c r="F14">
-        <v>7.35</v>
-      </c>
-      <c r="G14">
         <v>145.77</v>
       </c>
-      <c r="H14">
-        <v>145.77</v>
-      </c>
-      <c r="I14">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1435,25 +1300,16 @@
         <v>260</v>
       </c>
       <c r="D15">
-        <v>257.55</v>
+        <v>234.12</v>
       </c>
       <c r="E15">
-        <v>234.12</v>
+        <v>16</v>
       </c>
       <c r="F15">
-        <v>9.85</v>
-      </c>
-      <c r="G15">
         <v>169.98</v>
       </c>
-      <c r="H15">
-        <v>169.98</v>
-      </c>
-      <c r="I15">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1464,25 +1320,16 @@
         <v>252.4</v>
       </c>
       <c r="D16">
-        <v>237.73</v>
+        <v>219.49</v>
       </c>
       <c r="E16">
-        <v>219.49</v>
+        <v>17</v>
       </c>
       <c r="F16">
-        <v>12.35</v>
-      </c>
-      <c r="G16">
         <v>165.62</v>
       </c>
-      <c r="H16">
-        <v>165.62</v>
-      </c>
-      <c r="I16">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1493,25 +1340,16 @@
         <v>251.2</v>
       </c>
       <c r="D17">
-        <v>208.02</v>
+        <v>219.49</v>
       </c>
       <c r="E17">
-        <v>219.49</v>
+        <v>18</v>
       </c>
       <c r="F17">
-        <v>9.85</v>
-      </c>
-      <c r="G17">
         <v>130.25</v>
       </c>
-      <c r="H17">
-        <v>130.25</v>
-      </c>
-      <c r="I17">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1522,25 +1360,16 @@
         <v>248</v>
       </c>
       <c r="D18">
-        <v>198.11</v>
+        <v>218.16</v>
       </c>
       <c r="E18">
-        <v>218.16</v>
+        <v>19</v>
       </c>
       <c r="F18">
-        <v>9.85</v>
-      </c>
-      <c r="G18">
-        <v>0</v>
-      </c>
-      <c r="H18">
-        <v>-89.93</v>
-      </c>
-      <c r="I18">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1551,25 +1380,16 @@
         <v>246.4</v>
       </c>
       <c r="D19">
-        <v>217.92</v>
+        <v>214.17</v>
       </c>
       <c r="E19">
-        <v>214.17</v>
+        <v>20</v>
       </c>
       <c r="F19">
-        <v>4.85</v>
-      </c>
-      <c r="G19">
-        <v>0</v>
-      </c>
-      <c r="H19">
-        <v>-42.51</v>
-      </c>
-      <c r="I19">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1580,25 +1400,16 @@
         <v>245.6</v>
       </c>
       <c r="D20">
-        <v>237.73</v>
+        <v>212.84</v>
       </c>
       <c r="E20">
-        <v>212.84</v>
+        <v>21</v>
       </c>
       <c r="F20">
-        <v>2.35</v>
-      </c>
-      <c r="G20">
-        <v>0</v>
-      </c>
-      <c r="H20">
-        <v>-15.9</v>
-      </c>
-      <c r="I20">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1609,25 +1420,16 @@
         <v>244</v>
       </c>
       <c r="D21">
-        <v>277.36</v>
+        <v>199.54</v>
       </c>
       <c r="E21">
-        <v>199.54</v>
+        <v>0</v>
       </c>
       <c r="F21">
-        <v>-0.15</v>
-      </c>
-      <c r="G21">
-        <v>0</v>
-      </c>
-      <c r="H21">
-        <v>0</v>
-      </c>
-      <c r="I21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1638,25 +1440,16 @@
         <v>240</v>
       </c>
       <c r="D22">
-        <v>257.55</v>
+        <v>172.93</v>
       </c>
       <c r="E22">
-        <v>172.93</v>
+        <v>0</v>
       </c>
       <c r="F22">
-        <v>-2.65</v>
-      </c>
-      <c r="G22">
-        <v>0</v>
-      </c>
-      <c r="H22">
-        <v>0</v>
-      </c>
-      <c r="I22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1667,25 +1460,16 @@
         <v>220</v>
       </c>
       <c r="D23">
-        <v>217.92</v>
+        <v>106.42</v>
       </c>
       <c r="E23">
-        <v>106.42</v>
+        <v>0</v>
       </c>
       <c r="F23">
-        <v>-2.65</v>
-      </c>
-      <c r="G23">
-        <v>0</v>
-      </c>
-      <c r="H23">
-        <v>0</v>
-      </c>
-      <c r="I23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1696,25 +1480,16 @@
         <v>180</v>
       </c>
       <c r="D24">
-        <v>178.3</v>
+        <v>66.51</v>
       </c>
       <c r="E24">
-        <v>66.51</v>
+        <v>0</v>
       </c>
       <c r="F24">
-        <v>-5.15</v>
-      </c>
-      <c r="G24">
-        <v>0</v>
-      </c>
-      <c r="H24">
-        <v>0</v>
-      </c>
-      <c r="I24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1725,21 +1500,12 @@
         <v>160</v>
       </c>
       <c r="D25">
-        <v>158.49</v>
+        <v>39.91</v>
       </c>
       <c r="E25">
-        <v>39.91</v>
+        <v>0</v>
       </c>
       <c r="F25">
-        <v>-5.15</v>
-      </c>
-      <c r="G25">
-        <v>0</v>
-      </c>
-      <c r="H25">
-        <v>0</v>
-      </c>
-      <c r="I25">
         <v>0</v>
       </c>
     </row>
@@ -1759,7 +1525,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1776,7 +1542,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/src/data/W_data.xlsx
+++ b/src/data/W_data.xlsx
@@ -4,14 +4,27 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12375"/>
+    <workbookView windowWidth="22188" windowHeight="9180"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -39,7 +52,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -1003,11 +1016,11 @@
   <sheetPr/>
   <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
@@ -1183,7 +1196,7 @@
         <v>199.54</v>
       </c>
       <c r="E9">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F9">
         <v>107.38</v>
@@ -1203,7 +1216,7 @@
         <v>239.44</v>
       </c>
       <c r="E10">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="F10">
         <v>39.51</v>
@@ -1223,7 +1236,7 @@
         <v>266.05</v>
       </c>
       <c r="E11">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="F11">
         <v>83.28</v>
@@ -1243,7 +1256,7 @@
         <v>279.35</v>
       </c>
       <c r="E12">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="F12">
         <v>128.02</v>
@@ -1263,7 +1276,7 @@
         <v>266.05</v>
       </c>
       <c r="E13">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="F13">
         <v>156.9</v>
@@ -1283,7 +1296,7 @@
         <v>248.75</v>
       </c>
       <c r="E14">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="F14">
         <v>145.77</v>
@@ -1303,7 +1316,7 @@
         <v>234.12</v>
       </c>
       <c r="E15">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="F15">
         <v>169.98</v>
@@ -1323,7 +1336,7 @@
         <v>219.49</v>
       </c>
       <c r="E16">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="F16">
         <v>165.62</v>
@@ -1343,7 +1356,7 @@
         <v>219.49</v>
       </c>
       <c r="E17">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="F17">
         <v>130.25</v>
@@ -1363,7 +1376,7 @@
         <v>218.16</v>
       </c>
       <c r="E18">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -1383,7 +1396,7 @@
         <v>214.17</v>
       </c>
       <c r="E19">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -1403,7 +1416,7 @@
         <v>212.84</v>
       </c>
       <c r="E20">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="F20">
         <v>0</v>
@@ -1525,7 +1538,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1542,7 +1555,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/src/data/W_data.xlsx
+++ b/src/data/W_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9180"/>
+    <workbookView windowWidth="27945" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1016,11 +1016,11 @@
   <sheetPr/>
   <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
@@ -1047,16 +1047,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.3745</v>
+        <v>0.124</v>
       </c>
       <c r="C2">
-        <v>140</v>
+        <v>500</v>
       </c>
       <c r="D2">
-        <v>26.6</v>
+        <v>100</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>750</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -1067,16 +1067,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.3745</v>
+        <v>0.107</v>
       </c>
       <c r="C3">
-        <v>150</v>
+        <v>480</v>
       </c>
       <c r="D3">
-        <v>30.6</v>
+        <v>90</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -1087,16 +1087,16 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0.3745</v>
+        <v>0.094</v>
       </c>
       <c r="C4">
-        <v>170</v>
+        <v>470</v>
       </c>
       <c r="D4">
-        <v>45.23</v>
+        <v>110</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>550</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -1107,16 +1107,16 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>0.3745</v>
+        <v>0.084</v>
       </c>
       <c r="C5">
-        <v>190</v>
+        <v>440</v>
       </c>
       <c r="D5">
-        <v>59.86</v>
+        <v>200</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>510</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1127,16 +1127,16 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>0.3745</v>
+        <v>0.083</v>
       </c>
       <c r="C6">
-        <v>200</v>
+        <v>460</v>
       </c>
       <c r="D6">
-        <v>101.1</v>
+        <v>350</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>540</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -1147,19 +1147,19 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>0.3745</v>
+        <v>0.093</v>
       </c>
       <c r="C7">
-        <v>220</v>
+        <v>500</v>
       </c>
       <c r="D7">
-        <v>119.72</v>
+        <v>450</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>560</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>140</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1167,19 +1167,19 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>0.7489</v>
+        <v>0.084</v>
       </c>
       <c r="C8">
-        <v>230</v>
+        <v>780</v>
       </c>
       <c r="D8">
-        <v>159.63</v>
+        <v>800</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>790</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>160</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1187,19 +1187,19 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>1.1234</v>
+        <v>0.089</v>
       </c>
       <c r="C9">
-        <v>240</v>
+        <v>1000</v>
       </c>
       <c r="D9">
-        <v>199.54</v>
+        <v>1000</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="F9">
-        <v>107.38</v>
+        <v>200</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1207,19 +1207,19 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>1.1234</v>
+        <v>0.113</v>
       </c>
       <c r="C10">
-        <v>260</v>
+        <v>1420</v>
       </c>
       <c r="D10">
-        <v>239.44</v>
+        <v>900</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>1060</v>
       </c>
       <c r="F10">
-        <v>39.51</v>
+        <v>220</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1227,19 +1227,19 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>1.1234</v>
+        <v>0.14</v>
       </c>
       <c r="C11">
-        <v>280</v>
+        <v>1480</v>
       </c>
       <c r="D11">
-        <v>266.05</v>
+        <v>480</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>1410</v>
       </c>
       <c r="F11">
-        <v>83.28</v>
+        <v>300</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1247,19 +1247,19 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>0.7489</v>
+        <v>0.159</v>
       </c>
       <c r="C12">
-        <v>290</v>
+        <v>1410</v>
       </c>
       <c r="D12">
-        <v>279.35</v>
+        <v>130</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>1960</v>
       </c>
       <c r="F12">
-        <v>128.02</v>
+        <v>350</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1267,19 +1267,19 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>0.7489</v>
+        <v>0.162</v>
       </c>
       <c r="C13">
-        <v>292</v>
+        <v>1260</v>
       </c>
       <c r="D13">
-        <v>266.05</v>
+        <v>680</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>2580</v>
       </c>
       <c r="F13">
-        <v>156.9</v>
+        <v>370</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1287,19 +1287,19 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>0.7489</v>
+        <v>0.172</v>
       </c>
       <c r="C14">
-        <v>280</v>
+        <v>1200</v>
       </c>
       <c r="D14">
-        <v>248.75</v>
+        <v>600</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>2600</v>
       </c>
       <c r="F14">
-        <v>145.77</v>
+        <v>390</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1307,19 +1307,19 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>0.7489</v>
+        <v>0.17</v>
       </c>
       <c r="C15">
-        <v>260</v>
+        <v>1180</v>
       </c>
       <c r="D15">
-        <v>234.12</v>
+        <v>180</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>2700</v>
       </c>
       <c r="F15">
-        <v>169.98</v>
+        <v>398</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1327,19 +1327,19 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>0.7489</v>
+        <v>0.162</v>
       </c>
       <c r="C16">
-        <v>252.4</v>
+        <v>1130</v>
       </c>
       <c r="D16">
-        <v>219.49</v>
+        <v>150</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>2680</v>
       </c>
       <c r="F16">
-        <v>165.62</v>
+        <v>370</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1347,19 +1347,19 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>1.1234</v>
+        <v>0.16</v>
       </c>
       <c r="C17">
-        <v>251.2</v>
+        <v>1230</v>
       </c>
       <c r="D17">
-        <v>219.49</v>
+        <v>155</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>2070</v>
       </c>
       <c r="F17">
-        <v>130.25</v>
+        <v>340</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1367,19 +1367,19 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>1.1234</v>
+        <v>0.157</v>
       </c>
       <c r="C18">
-        <v>248</v>
+        <v>1390</v>
       </c>
       <c r="D18">
-        <v>218.16</v>
+        <v>180</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>2380</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>220</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1387,19 +1387,19 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>1.1234</v>
+        <v>0.16</v>
       </c>
       <c r="C19">
-        <v>246.4</v>
+        <v>1510</v>
       </c>
       <c r="D19">
-        <v>214.17</v>
+        <v>630</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>1970</v>
       </c>
       <c r="F19">
-        <v>0</v>
+        <v>190</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1407,19 +1407,19 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>1.1234</v>
+        <v>0.167</v>
       </c>
       <c r="C20">
-        <v>245.6</v>
+        <v>1600</v>
       </c>
       <c r="D20">
-        <v>212.84</v>
+        <v>980</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>1600</v>
       </c>
       <c r="F20">
-        <v>0</v>
+        <v>80</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1427,19 +1427,19 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>1.1234</v>
+        <v>0.169</v>
       </c>
       <c r="C21">
-        <v>244</v>
+        <v>1570</v>
       </c>
       <c r="D21">
-        <v>199.54</v>
+        <v>1080</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>1440</v>
       </c>
       <c r="F21">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1447,16 +1447,16 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>0.7489</v>
+        <v>0.169</v>
       </c>
       <c r="C22">
-        <v>240</v>
+        <v>1480</v>
       </c>
       <c r="D22">
-        <v>172.93</v>
+        <v>1050</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>1190</v>
       </c>
       <c r="F22">
         <v>0</v>
@@ -1467,16 +1467,16 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>0.7489</v>
+        <v>0.161</v>
       </c>
       <c r="C23">
-        <v>220</v>
+        <v>1100</v>
       </c>
       <c r="D23">
-        <v>106.42</v>
+        <v>820</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>1070</v>
       </c>
       <c r="F23">
         <v>0</v>
@@ -1487,16 +1487,16 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>0.3745</v>
+        <v>0.15</v>
       </c>
       <c r="C24">
-        <v>180</v>
+        <v>850</v>
       </c>
       <c r="D24">
-        <v>66.51</v>
+        <v>650</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>850</v>
       </c>
       <c r="F24">
         <v>0</v>
@@ -1507,16 +1507,16 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>0.3745</v>
+        <v>0.139</v>
       </c>
       <c r="C25">
-        <v>160</v>
+        <v>500</v>
       </c>
       <c r="D25">
-        <v>39.91</v>
+        <v>360</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>780</v>
       </c>
       <c r="F25">
         <v>0</v>
@@ -1538,7 +1538,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1555,7 +1555,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/src/data/W_data.xlsx
+++ b/src/data/W_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12375"/>
+    <workbookView windowWidth="18350" windowHeight="7000"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,16 +37,16 @@
     <t>E_PRICE</t>
   </si>
   <si>
-    <t>P_EL</t>
+    <t>L_Power</t>
   </si>
   <si>
-    <t>H_TL</t>
+    <t>L_Heat</t>
   </si>
   <si>
-    <t>C_TL</t>
+    <t>L_Cool</t>
   </si>
   <si>
-    <t>P_RES</t>
+    <t>P_PV</t>
   </si>
 </sst>
 </file>
@@ -1017,10 +1017,10 @@
   <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="5"/>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
@@ -1538,7 +1538,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1555,7 +1555,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
